--- a/GEO/C084_Hayman_Pasricha.GEO_metadata.xlsx
+++ b/GEO/C084_Hayman_Pasricha.GEO_metadata.xlsx
@@ -2196,7 +2196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="216">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -2273,10 +2273,19 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
+    <t xml:space="preserve">Zinc supplementation with or without additional micronutrients does not affect peripheral blood gene expression or serum cytokine level in Bangladeshi children</t>
+  </si>
+  <si>
     <t xml:space="preserve">summary</t>
   </si>
   <si>
+    <t xml:space="preserve">Preventive zinc supplementation provided as a stand-alone dispersible tablet, or via home fortification as multiple micronutrient powders (MNPs), has been considered a potential strategy to prevent zinc deficiency and improve health (including immune) outcomes among children in low- and middle-income countries. However, the impact of zinc supplementation on immune profiles has not been well characterised. We sought to define the effect of zinc supplementation on peripheral blood gene expression  among young children in Dhaka, Bangladesh. In a sub study of a large randomized, controlled, community-based efficacy trial where children 9-11 months of age received one of the following interventions on a daily basis for 24 weeks 1) MNPs containing 10 mg of zinc; 2) dispersible tablet containing 10 mg zinc; or 3) placebo powder, we used RNA-sequencing to profile the peripheral blood gene expression, as well as highly sensitive multiplex assays to detect cytokine profiles. We profiled samples from 100 children enrolled in the parent trial. We did not detect an effect from either zinc intervention on differential peripheral blood gene expression at the end of intervention, or an effect from intervention on change in gene expression from baseline. We also did not detect an effect from either intervention on cytokine concentrations. Exploratory analysis did not identify an association between undernutrition (defined as stunting, underweight or wasting) on peripheral blood gene expression. </t>
+  </si>
+  <si>
     <t xml:space="preserve">overall design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peripheral blood mRNA profliing in children pre- and post- 6 months intervention (zinc tablet, micronutrient powder containing zinc, or placebo) as part of a randomised controlled trial. </t>
   </si>
   <si>
     <t xml:space="preserve">contributor</t>
@@ -2558,15 +2567,27 @@
     <t xml:space="preserve">growth protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">treatment protocol </t>
   </si>
   <si>
+    <t xml:space="preserve">Children received one of the following interventions daily for six months: 1) MNPs containing 10 mg of zinc (Treatment A); 2) dispersible tablet containing 10 mg zinc (Treatment B); or 3) placebo powder (Treatment C)</t>
+  </si>
+  <si>
     <t xml:space="preserve">extract protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">Whole blood was stored and frozen in RNA-later. Frozen samples were thawed at room temperature and RNA was isolated immediately using the RiboPure Blood Kit (Ambion) as per manufacturers protocol. </t>
+  </si>
+  <si>
     <t xml:space="preserve">library construction protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">Transcriptome libraries were generated by adapting the CelSeq2 protocol[12] as follows: Samples were pooled after first strand cDNA synthesis, treated with Exonuclease 1 for 30 minutes, followed by a 1.2X bead clean-up. Second strand synthesis was performed using NEBNext Second Strand Synthesis module (NEB #E6111S) i and NucleoMag NGS Clean-up and Size select magnetic beads (Macherey-Nagel - 7449970.5) were used for all DNA purification and size selection steps.</t>
+  </si>
+  <si>
     <t xml:space="preserve">library strategy</t>
   </si>
   <si>
@@ -2591,6 +2612,9 @@
     <t xml:space="preserve">reads were aligned using Rsubread 2.2.6</t>
   </si>
   <si>
+    <t xml:space="preserve">All code used to perform data processing and analysis of the RNA-seq data are available from https://github.com/WEHISCORE/C084_Hayman_Pasricha</t>
+  </si>
+  <si>
     <t xml:space="preserve">genome build</t>
   </si>
   <si>
@@ -2630,7 +2654,10 @@
     <t xml:space="preserve">5522a4213e384d6d72cf125b59060188</t>
   </si>
   <si>
-    <t xml:space="preserve">73dfe1c84322340d0770225ddb064a90</t>
+    <t xml:space="preserve">7e0758eb5c69c0cd7b6a4e975a8259f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">671fa9ff3dae6701fb9f0dfc46989c9e</t>
   </si>
   <si>
     <t xml:space="preserve"># For each file listed in the "raw file" columns of the SAMPLES section above, provide additional information below.</t>
@@ -3339,7 +3366,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3369,14 +3396,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3416,10 +3435,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3444,12 +3459,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -3464,23 +3475,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3500,7 +3499,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -3565,6 +3564,5241 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>748440</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11808000" cy="13282200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2005560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11903760" cy="12708360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11760480" cy="12698640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -3573,22 +8807,22 @@
   </sheetPr>
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="28.64"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3597,7 +8831,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3606,7 +8840,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3615,7 +8849,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3624,14 +8858,14 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -3640,7 +8874,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3649,679 +8883,687 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="C9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11"/>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="11"/>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="11"/>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="B18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="9"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+    <row r="21" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" s="15" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20"/>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20"/>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20"/>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+    </row>
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+    </row>
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+    </row>
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+    </row>
+    <row r="55" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" s="25" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="s">
+      <c r="B59" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="22" t="s">
+      <c r="B60" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" s="26" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="19" t="s">
+      <c r="B65" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="B66" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="19" t="s">
+      <c r="B67" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="23"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="19"/>
-    </row>
-    <row r="35" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
+      <c r="B68" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
+      <c r="B69" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="19"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-    </row>
-    <row r="55" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19"/>
-    </row>
-    <row r="62" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="28"/>
-    </row>
-    <row r="64" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="29"/>
-    </row>
-    <row r="65" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="31"/>
-    </row>
-    <row r="66" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F66" s="31"/>
-    </row>
-    <row r="67" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F67" s="31"/>
-    </row>
-    <row r="68" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" s="31"/>
-    </row>
-    <row r="69" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="31"/>
-    </row>
-    <row r="70" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="31"/>
-    </row>
-    <row r="71" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="31"/>
-    </row>
-    <row r="72" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26" t="s">
+      <c r="B70" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="73" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="29" t="s">
+      <c r="C70" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="E70" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>45</v>
+    <row r="71" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" s="25" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4335,7 +9577,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4348,22 +9591,22 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="28.64"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4373,7 +9616,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4383,7 +9626,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4393,7 +9636,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4403,7 +9646,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -4411,7 +9654,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -4421,7 +9664,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -4431,715 +9674,709 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="9"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="11"/>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="11"/>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+    <row r="17" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="17" t="s">
+    </row>
+    <row r="18" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" s="15" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="C20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" s="25" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" s="27" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" s="27" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" s="26" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="17" t="s">
+    </row>
+    <row r="69" s="25" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="B69" s="25" t="s">
         <v>99</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-    </row>
-    <row r="46" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" s="33" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" s="33" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-    </row>
-    <row r="57" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
-    </row>
-    <row r="58" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="F64" s="31"/>
-    </row>
-    <row r="65" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="31"/>
-    </row>
-    <row r="66" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F66" s="31"/>
-    </row>
-    <row r="67" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +10390,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5169,19 +10407,19 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="37.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="37.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="22.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="37.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5190,7 +10428,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5199,7 +10437,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -5208,7 +10446,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -5217,14 +10455,14 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -5233,7 +10471,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -5242,809 +10480,802 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-    </row>
-    <row r="11" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="11"/>
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="11"/>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="11"/>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="9"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" s="8" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" s="9" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
+    <row r="20" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="17" t="s">
+    </row>
+    <row r="21" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" s="15" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="17" t="s">
+      <c r="E23" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O23" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>174</v>
+      <c r="L23" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="19" t="s">
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="29"/>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+    </row>
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+    </row>
+    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" s="25" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="N25" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="P25" s="36"/>
-    </row>
-    <row r="26" s="19" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="N26" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="34" t="s">
+      <c r="B56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" s="26" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" s="30" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="B61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" s="27"/>
+    </row>
+    <row r="62" s="30" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" s="27"/>
+    </row>
+    <row r="63" s="30" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="19"/>
-    </row>
-    <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F63" s="27"/>
+    </row>
+    <row r="64" s="30" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" s="30" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" s="30" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" s="19"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-    </row>
-    <row r="49" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
+      <c r="B66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" s="27"/>
+    </row>
+    <row r="67" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="19" t="s">
+      <c r="B68" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" s="12" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" s="25" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" s="10" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-    </row>
-    <row r="58" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" s="30" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="29"/>
-    </row>
-    <row r="61" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="33"/>
-    </row>
-    <row r="66" s="37" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="33"/>
-    </row>
-    <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="31"/>
-    </row>
-    <row r="70" s="26" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" s="29" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="76" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6058,6 +11289,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>